--- a/src/hopeiq/hope_ontologies.xlsx
+++ b/src/hopeiq/hope_ontologies.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianmaurer/code/hopeiq/src/hopeiq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clinton/code/hopeIQ/src/hopeiq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCF02D27-DC6C-A643-A151-29FBDFEB86D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528403CE-D5EC-5643-B465-0C4EEA6ECA3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="2120" windowWidth="27640" windowHeight="16940" xr2:uid="{78531E2B-598B-2842-ADCC-A761727268C1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="8" xr2:uid="{78531E2B-598B-2842-ADCC-A761727268C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Light Chain Restriction" sheetId="1" r:id="rId1"/>
+    <sheet name="FIELD_NAME" sheetId="2" r:id="rId1"/>
+    <sheet name="IMPRESSION" sheetId="4" r:id="rId2"/>
+    <sheet name="MM_BIOMARKER" sheetId="3" r:id="rId3"/>
+    <sheet name="MM_BIOMARKER_MUTATION" sheetId="9" r:id="rId4"/>
+    <sheet name="LIGHT_CHAIN_RESTRICTION" sheetId="1" r:id="rId5"/>
+    <sheet name="BIOMARKER" sheetId="6" r:id="rId6"/>
+    <sheet name="PNE_STATUS" sheetId="5" r:id="rId7"/>
+    <sheet name="SITE" sheetId="8" r:id="rId8"/>
+    <sheet name="PROCEDURE" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -42,23 +50,144 @@
     <t>synonyms</t>
   </si>
   <si>
-    <t>Kappa</t>
-  </si>
-  <si>
     <t>LIGHT_CHAIN_RESTRICTION</t>
   </si>
   <si>
-    <t>Lambda</t>
+    <t>Collected Date</t>
+  </si>
+  <si>
+    <t>FIELD_NAME</t>
+  </si>
+  <si>
+    <t>Stemline</t>
+  </si>
+  <si>
+    <t>MM_BIOMARKER</t>
+  </si>
+  <si>
+    <t>CKS1B (1q21.3)</t>
+  </si>
+  <si>
+    <t>CDKN2C (1p32.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYC (8q24.21) </t>
+  </si>
+  <si>
+    <t>CEP 15 (15p11.1-q11.1)</t>
+  </si>
+  <si>
+    <t>CEP 9 (9p11-q11)</t>
+  </si>
+  <si>
+    <t>D5S23/D5S721 (5p15.2)</t>
+  </si>
+  <si>
+    <t>LAMP1 (13q34)</t>
+  </si>
+  <si>
+    <t>D13S319 (13q14.3)</t>
+  </si>
+  <si>
+    <t>MAF (16q23.2)</t>
+  </si>
+  <si>
+    <t>IGH (14q32.33)</t>
+  </si>
+  <si>
+    <t>RARA (17q21.2)</t>
+  </si>
+  <si>
+    <t>PML (15q24.1)</t>
+  </si>
+  <si>
+    <t>Sideline</t>
+  </si>
+  <si>
+    <t>Report ID</t>
+  </si>
+  <si>
+    <t>IMPRESSION</t>
+  </si>
+  <si>
+    <t>Abnormal female karyotype</t>
+  </si>
+  <si>
+    <t>Lab No|Path#</t>
+  </si>
+  <si>
+    <t>Collection Date/Time|Collection Date</t>
+  </si>
+  <si>
+    <t>Positive in Majority of Plasma Cells</t>
+  </si>
+  <si>
+    <t>Positive in Plasma Cells</t>
+  </si>
+  <si>
+    <t>Positive in Rare Scattered B-Cells</t>
+  </si>
+  <si>
+    <t>Positive in Rare Scattered Plasma Cells</t>
+  </si>
+  <si>
+    <t>PNE_STATUS</t>
+  </si>
+  <si>
+    <t>KAPPA MONOTYPIC</t>
+  </si>
+  <si>
+    <t>Kappa Light Chain Restriction</t>
+  </si>
+  <si>
+    <t>Lambda Light Chain Restriction</t>
+  </si>
+  <si>
+    <t>LAMBDA MONOTYPIC</t>
+  </si>
+  <si>
+    <t>CD20</t>
+  </si>
+  <si>
+    <t>BIOMARKER</t>
+  </si>
+  <si>
+    <t>Aspirate</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>Core Biopsy</t>
+  </si>
+  <si>
+    <t>Bone Marrow</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>Copy Number Changes</t>
+  </si>
+  <si>
+    <t>MM_BIOMARKER_MUTATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,8 +213,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,11 +529,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A02B234-35F0-F34F-85DE-55E9B3E61ECB}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE31CAA-1398-A443-BC89-C4D07CEDCB86}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAFE5BB-D916-EC41-AAD5-A7DA09F17884}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586EAE83-85E1-8C4C-BFBE-5914521C2597}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7784EA-6AC3-3547-B14A-302BE0419D63}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,18 +827,194 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D7A06F-4C61-A44F-8640-EE7CC089C291}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4179CBB-3D0A-544B-ACC5-49BF84E1937D}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771CDF28-5F02-2D48-B3C8-3364CA8EFB3B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6356D726-355F-8C40-8519-530D20B2CF69}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
